--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510719.6572961081</v>
+        <v>512659.7371658908</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592088</v>
+        <v>925407.278659209</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5807158.277519729</v>
+        <v>5807158.27751973</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>109.8489596931843</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>35.80989422327546</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -747,16 +749,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>17.76425168466123</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.27905463269151</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>82.12808955468941</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>87.90619724909971</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>82.12808955468941</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.2838073416025</v>
+        <v>36.39835933122335</v>
       </c>
       <c r="I11" t="n">
         <v>205.224307868124</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W14" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="X14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.2838073416025</v>
+        <v>40.77082694055858</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.07867728478316</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1704,7 +1706,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>35.90507490100135</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>99.15242676576018</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.6226671993474</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="T18" t="n">
         <v>198.3825319082687</v>
@@ -1983,7 +1985,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>59.33202238395851</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>99.07907767104379</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>237.216709897148</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.384156787170403</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>16.92980102259569</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D23" t="n">
+      <c r="W23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.5891775064833</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>120.6173531697731</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.8907574434295</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,13 +2572,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="H26" t="n">
-        <v>274.2838073416025</v>
+        <v>264.3952212715415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>150.3977678162259</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>144.8925078151532</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>199.7419103973702</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,13 +2797,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E29" t="n">
-        <v>274.2838073416025</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F29" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2874,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>23.47960256112346</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>36.51882638915914</v>
       </c>
       <c r="U30" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.75410523180391</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.5891775064833</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>191.6038980441427</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>18.2323169401182</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>21.4919213145232</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,16 +3164,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3263,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.43010407512111</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,19 +3350,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.90507490100101</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>75.99985991669037</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>274.2838073416025</v>
@@ -3509,7 +3511,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>35.72422578294405</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>79.71476095348008</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>114.6027213335778</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57657371040608</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D41" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.2838073416025</v>
+        <v>99.73835480560622</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>36.90018664489104</v>
       </c>
       <c r="G42" t="n">
-        <v>125.0080200006329</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.36486963835926</v>
       </c>
       <c r="Y44" t="n">
         <v>274.2838073416025</v>
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.85939419193543</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>64.30649562311226</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4337,13 +4339,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4352,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>745.907174392252</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>520.6898842948577</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U2" t="n">
-        <v>266.6719412882472</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V2" t="n">
-        <v>266.6719412882472</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="W2" t="n">
-        <v>266.6719412882472</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="X2" t="n">
-        <v>21.9427045873282</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.9427045873282</v>
+        <v>132.9012497319588</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>844.6207376997432</v>
+        <v>499.8936553037125</v>
       </c>
       <c r="C3" t="n">
-        <v>808.4491273732024</v>
+        <v>327.1405402255297</v>
       </c>
       <c r="D3" t="n">
-        <v>660.8608207321463</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4416,7 +4418,7 @@
         <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>416.655578933882</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N3" t="n">
         <v>549.5069725377944</v>
@@ -4446,13 +4448,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>844.6207376997432</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="X3" t="n">
-        <v>844.6207376997432</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.6207376997432</v>
+        <v>666.936206425273</v>
       </c>
     </row>
     <row r="4">
@@ -4477,16 +4479,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="G4" t="n">
-        <v>185.2094439902745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4574,7 +4576,7 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
         <v>815.0204133003602</v>
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>891.4067935900604</v>
+        <v>198.114159854572</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>198.114159854572</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>198.114159854572</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>198.114159854572</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>198.114159854572</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>198.114159854572</v>
       </c>
       <c r="H6" t="n">
         <v>109.3200212191178</v>
@@ -4653,7 +4655,7 @@
         <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>277.9660032696079</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
         <v>549.5069725377944</v>
@@ -4680,16 +4682,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>610.3694942253441</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>403.8425956309216</v>
       </c>
       <c r="Y6" t="n">
-        <v>891.4067935900604</v>
+        <v>198.114159854572</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K8" t="n">
         <v>143.241092649432</v>
@@ -4838,16 +4840,16 @@
         <v>266.6719412882472</v>
       </c>
       <c r="V8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="W8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="X8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>981.2022424513852</v>
+        <v>891.4067935900604</v>
       </c>
       <c r="C9" t="n">
         <v>808.4491273732024</v>
@@ -4884,19 +4886,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N9" t="n">
-        <v>820.4955584121041</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O9" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4926,7 +4928,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.13522936641</v>
+        <v>891.4067935900604</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4981,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="C11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="D11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="E11" t="n">
-        <v>1061.06897431207</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="F11" t="n">
-        <v>784.014623461966</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="G11" t="n">
-        <v>506.9602726118625</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="H11" t="n">
         <v>229.9059217617589</v>
@@ -5042,19 +5044,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5063,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T11" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="X11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="Y11" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.9427045873282</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E12" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F12" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G12" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L12" t="n">
-        <v>416.655578933882</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M12" t="n">
-        <v>688.1965482020685</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N12" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O12" t="n">
-        <v>959.7375174702549</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U12" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V12" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W12" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X12" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I13" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J13" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5218,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J14" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5306,22 +5308,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T14" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U14" t="n">
-        <v>1097.13522936641</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V14" t="n">
-        <v>853.1057571376389</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W14" t="n">
-        <v>576.0514062875353</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="X14" t="n">
-        <v>298.9970554374318</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>981.2022424513852</v>
+        <v>930.0926782448495</v>
       </c>
       <c r="C15" t="n">
-        <v>808.4491273732024</v>
+        <v>757.3395631666667</v>
       </c>
       <c r="D15" t="n">
-        <v>660.8608207321463</v>
+        <v>609.7512565256106</v>
       </c>
       <c r="E15" t="n">
-        <v>503.251291735001</v>
+        <v>452.1417275284654</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2955017516178</v>
+        <v>307.1859375450822</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8983197263226</v>
+        <v>169.7887555197869</v>
       </c>
       <c r="H15" t="n">
-        <v>109.3200212191178</v>
+        <v>58.21045701258208</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K15" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L15" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M15" t="n">
-        <v>557.7146411209028</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N15" t="n">
-        <v>829.2556103890893</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O15" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P15" t="n">
         <v>1097.13522936641</v>
@@ -5379,28 +5381,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5458,28 +5460,28 @@
         <v>122.096671017389</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E17" t="n">
-        <v>22.60864108688619</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="F17" t="n">
-        <v>22.60864108688619</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G17" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L17" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N17" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P17" t="n">
         <v>1093.116282134284</v>
@@ -5537,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
@@ -5595,16 +5597,16 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6851405540922</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O18" t="n">
         <v>898.564759531413</v>
@@ -5616,28 +5618,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>936.0212770773536</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169106</v>
+        <v>735.6348812104155</v>
       </c>
       <c r="U18" t="n">
-        <v>403.5026004348891</v>
+        <v>508.7084397283941</v>
       </c>
       <c r="V18" t="n">
-        <v>169.25135696049</v>
+        <v>274.4571962539949</v>
       </c>
       <c r="W18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>399.7428683723875</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C20" t="n">
-        <v>399.7428683723875</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="D20" t="n">
-        <v>122.688517522284</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="E20" t="n">
-        <v>22.60864108688619</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="F20" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G20" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H20" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
@@ -5777,25 +5779,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T20" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U20" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V20" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W20" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X20" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y20" t="n">
-        <v>676.7972192224911</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.695819665511</v>
+        <v>520.352100848734</v>
       </c>
       <c r="C21" t="n">
-        <v>21.9427045873282</v>
+        <v>520.352100848734</v>
       </c>
       <c r="D21" t="n">
-        <v>21.9427045873282</v>
+        <v>520.352100848734</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H21" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
@@ -5835,10 +5837,10 @@
         <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2622680873972</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="M21" t="n">
-        <v>409.2622680873972</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N21" t="n">
         <v>630.6851405540922</v>
@@ -5856,25 +5858,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8839858920107</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W21" t="n">
-        <v>610.3694942253441</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="X21" t="n">
-        <v>403.8425956309216</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="Y21" t="n">
-        <v>198.114159854572</v>
+        <v>520.352100848734</v>
       </c>
     </row>
     <row r="22">
@@ -5938,13 +5940,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
         <v>21.9427045873282</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C23" t="n">
         <v>298.9970554374318</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G23" t="n">
         <v>21.9427045873282</v>
@@ -6020,19 +6022,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>853.1057571376389</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="W23" t="n">
-        <v>853.1057571376389</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="X23" t="n">
-        <v>853.1057571376389</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y23" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.2841263065671</v>
+        <v>503.251291735001</v>
       </c>
       <c r="C24" t="n">
-        <v>169.5310112283843</v>
+        <v>503.251291735001</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="E24" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F24" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G24" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H24" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
@@ -6069,49 +6071,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K24" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L24" t="n">
-        <v>416.655578933882</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M24" t="n">
-        <v>416.655578933882</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N24" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T24" t="n">
-        <v>896.7488334994719</v>
+        <v>708.9797275113506</v>
       </c>
       <c r="U24" t="n">
-        <v>669.8223920174504</v>
+        <v>708.9797275113506</v>
       </c>
       <c r="V24" t="n">
-        <v>669.8223920174504</v>
+        <v>708.9797275113506</v>
       </c>
       <c r="W24" t="n">
-        <v>669.8223920174504</v>
+        <v>708.9797275113506</v>
       </c>
       <c r="X24" t="n">
-        <v>669.8223920174504</v>
+        <v>708.9797275113506</v>
       </c>
       <c r="Y24" t="n">
-        <v>509.3266774281276</v>
+        <v>503.251291735001</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C25" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D25" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E25" t="n">
         <v>21.9427045873282</v>
@@ -6178,19 +6180,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>170.401920923893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>170.401920923893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X25" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>576.7173427870933</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="C26" t="n">
-        <v>576.7173427870933</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="D26" t="n">
-        <v>576.7173427870933</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="E26" t="n">
-        <v>576.7173427870933</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="F26" t="n">
-        <v>576.7173427870933</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="G26" t="n">
-        <v>299.6629919369898</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="H26" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I26" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6248,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U26" t="n">
-        <v>576.7173427870933</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V26" t="n">
-        <v>576.7173427870933</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W26" t="n">
-        <v>576.7173427870933</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="X26" t="n">
-        <v>576.7173427870933</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="Y26" t="n">
-        <v>576.7173427870933</v>
+        <v>843.1172863597994</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>450.6517450961613</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>450.6517450961613</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>450.6517450961613</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F27" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G27" t="n">
         <v>21.9427045873282</v>
@@ -6303,13 +6305,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
         <v>630.6851405540922</v>
@@ -6339,16 +6341,16 @@
         <v>870.2087878843885</v>
       </c>
       <c r="V27" t="n">
-        <v>870.2087878843885</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W27" t="n">
-        <v>617.6942962177218</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X27" t="n">
-        <v>617.6942962177218</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y27" t="n">
-        <v>617.6942962177218</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6406,28 +6408,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>676.7972192224911</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C29" t="n">
-        <v>399.7428683723875</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D29" t="n">
-        <v>399.7428683723875</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E29" t="n">
-        <v>122.688517522284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F29" t="n">
         <v>21.9427045873282</v>
@@ -6485,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>183.0566568763846</v>
+        <v>314.4868012117674</v>
       </c>
       <c r="C30" t="n">
-        <v>183.0566568763846</v>
+        <v>314.4868012117674</v>
       </c>
       <c r="D30" t="n">
-        <v>183.0566568763846</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="E30" t="n">
-        <v>183.0566568763846</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F30" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
-        <v>45.65947485108927</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H30" t="n">
         <v>21.9427045873282</v>
@@ -6543,49 +6545,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>548.9545891439176</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N30" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O30" t="n">
-        <v>1088.375177389425</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T30" t="n">
-        <v>896.7488334994719</v>
+        <v>793.9277343604556</v>
       </c>
       <c r="U30" t="n">
-        <v>669.8223920174504</v>
+        <v>567.0012928784341</v>
       </c>
       <c r="V30" t="n">
-        <v>435.5711485430513</v>
+        <v>567.0012928784341</v>
       </c>
       <c r="W30" t="n">
-        <v>183.0566568763846</v>
+        <v>314.4868012117674</v>
       </c>
       <c r="X30" t="n">
-        <v>183.0566568763846</v>
+        <v>314.4868012117674</v>
       </c>
       <c r="Y30" t="n">
-        <v>183.0566568763846</v>
+        <v>314.4868012117674</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F31" t="n">
         <v>916.4148994253914</v>
@@ -6652,19 +6654,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U31" t="n">
-        <v>1064.05027458681</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V31" t="n">
-        <v>1064.05027458681</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1064.05027458681</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I32" t="n">
         <v>21.9427045873282</v>
@@ -6707,13 +6709,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6722,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U32" t="n">
-        <v>853.1057571376389</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V32" t="n">
-        <v>576.0514062875353</v>
+        <v>699.833627065984</v>
       </c>
       <c r="W32" t="n">
-        <v>298.9970554374318</v>
+        <v>699.833627065984</v>
       </c>
       <c r="X32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
       <c r="C33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
       <c r="D33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
       <c r="E33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
       <c r="F33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8983197263226</v>
+        <v>155.2300145233444</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3200212191178</v>
+        <v>43.65171601613952</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L33" t="n">
-        <v>29.3360154338131</v>
+        <v>274.3046529787421</v>
       </c>
       <c r="M33" t="n">
-        <v>300.8769847019996</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N33" t="n">
-        <v>572.4179539701861</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O33" t="n">
         <v>817.386591515115</v>
@@ -6810,19 +6812,19 @@
         <v>726.0805366250836</v>
       </c>
       <c r="U33" t="n">
-        <v>726.0805366250836</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V33" t="n">
-        <v>491.8292931506845</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="W33" t="n">
-        <v>239.3148014840177</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="X33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
       <c r="Y33" t="n">
-        <v>239.3148014840177</v>
+        <v>292.6271965486396</v>
       </c>
     </row>
     <row r="34">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D35" t="n">
         <v>21.9427045873282</v>
@@ -6935,22 +6937,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J35" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134284</v>
@@ -6959,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>1055.28663939154</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>1055.28663939154</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W35" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X35" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y35" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>893.8249258195958</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C36" t="n">
-        <v>721.0718107414129</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>573.4835041003568</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
         <v>21.9427045873282</v>
@@ -7017,49 +7019,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K36" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L36" t="n">
-        <v>416.655578933882</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M36" t="n">
-        <v>688.1965482020685</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N36" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R36" t="n">
-        <v>1060.867476941156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1060.867476941156</v>
+        <v>1020.367694097026</v>
       </c>
       <c r="T36" t="n">
-        <v>1060.867476941156</v>
+        <v>819.9812982300876</v>
       </c>
       <c r="U36" t="n">
-        <v>1060.867476941156</v>
+        <v>819.9812982300876</v>
       </c>
       <c r="V36" t="n">
-        <v>1060.867476941156</v>
+        <v>819.9812982300876</v>
       </c>
       <c r="W36" t="n">
-        <v>1060.867476941156</v>
+        <v>567.466806563421</v>
       </c>
       <c r="X36" t="n">
-        <v>1060.867476941156</v>
+        <v>567.466806563421</v>
       </c>
       <c r="Y36" t="n">
-        <v>1060.867476941156</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="37">
@@ -7129,7 +7131,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W37" t="n">
         <v>21.9427045873282</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C38" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D38" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E38" t="n">
         <v>21.9427045873282</v>
@@ -7175,19 +7177,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P38" t="n">
         <v>1093.116282134284</v>
@@ -7199,25 +7201,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.13522936641</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.2841263065671</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>169.5310112283843</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
         <v>21.9427045873282</v>
@@ -7254,22 +7256,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M39" t="n">
-        <v>545.8456222469285</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N39" t="n">
-        <v>817.386591515115</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O39" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P39" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
@@ -7278,25 +7280,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T39" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U39" t="n">
-        <v>830.8154377838487</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V39" t="n">
-        <v>830.8154377838487</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W39" t="n">
-        <v>830.8154377838487</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>715.0551132044772</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>509.3266774281276</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C40" t="n">
-        <v>928.1084082237813</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D40" t="n">
         <v>916.4148994253914</v>
@@ -7369,13 +7371,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C41" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D41" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E41" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G41" t="n">
         <v>21.9427045873282</v>
@@ -7412,19 +7414,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
         <v>1093.116282134284</v>
@@ -7433,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X41" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y41" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>347.1690469996892</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="C42" t="n">
-        <v>347.1690469996892</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="D42" t="n">
-        <v>347.1690469996892</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="E42" t="n">
-        <v>347.1690469996892</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="F42" t="n">
-        <v>347.1690469996892</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
         <v>21.9427045873282</v>
@@ -7497,13 +7499,13 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M42" t="n">
-        <v>541.5612782974326</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N42" t="n">
-        <v>813.1022475656191</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>1080.98186654294</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
         <v>1097.13522936641</v>
@@ -7512,28 +7514,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S42" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T42" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U42" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V42" t="n">
-        <v>926.4669324920217</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="W42" t="n">
-        <v>926.4669324920217</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="X42" t="n">
-        <v>719.9400338975992</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="Y42" t="n">
-        <v>514.2115981212496</v>
+        <v>308.1911009227485</v>
       </c>
     </row>
     <row r="43">
@@ -7588,25 +7590,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X43" t="n">
         <v>21.9427045873282</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>543.0265276662028</v>
+        <v>783.348686962408</v>
       </c>
       <c r="C44" t="n">
-        <v>543.0265276662028</v>
+        <v>783.348686962408</v>
       </c>
       <c r="D44" t="n">
-        <v>298.9970554374318</v>
+        <v>783.348686962408</v>
       </c>
       <c r="E44" t="n">
-        <v>21.9427045873282</v>
+        <v>783.348686962408</v>
       </c>
       <c r="F44" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G44" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I44" t="n">
         <v>21.9427045873282</v>
@@ -7688,10 +7690,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="Y44" t="n">
-        <v>820.0808785163064</v>
+        <v>783.348686962408</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.9427045873282</v>
+        <v>59.17441589231348</v>
       </c>
       <c r="C45" t="n">
         <v>21.9427045873282</v>
@@ -7734,13 +7736,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>688.1965482020685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N45" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O45" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7761,16 +7763,16 @@
         <v>499.1540951430621</v>
       </c>
       <c r="V45" t="n">
-        <v>434.1980389581003</v>
+        <v>264.902851668663</v>
       </c>
       <c r="W45" t="n">
-        <v>434.1980389581003</v>
+        <v>264.902851668663</v>
       </c>
       <c r="X45" t="n">
-        <v>227.6711403636777</v>
+        <v>264.902851668663</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.9427045873282</v>
+        <v>59.17441589231348</v>
       </c>
     </row>
     <row r="46">
@@ -7834,13 +7836,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7985,7 +7987,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
         <v>454.8408013884635</v>
@@ -8064,10 +8066,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N3" t="n">
-        <v>262.2514961538888</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8222,7 +8224,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
         <v>454.8408013884635</v>
@@ -8301,10 +8303,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>139.1386460980858</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.6161323053679</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8471,7 +8473,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8532,7 +8534,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
@@ -8541,13 +8543,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>351.5244810902469</v>
       </c>
       <c r="P9" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8690,7 +8692,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
@@ -8766,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>412.8644904155703</v>
+        <v>338.5397817006614</v>
       </c>
       <c r="N12" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>187.4124652894337</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8927,7 +8929,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9003,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,13 +9017,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N15" t="n">
-        <v>402.3419766228525</v>
+        <v>348.0193027921887</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
         <v>136.482229733871</v>
@@ -9164,7 +9166,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9243,7 +9245,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,10 +9254,10 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>210.6142818167799</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>351.5244810902469</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9483,13 +9485,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>335.0496189120709</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>351.7176364193258</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9717,16 +9719,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2514961538888</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9951,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9960,7 +9962,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>354.7721594580186</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N27" t="n">
         <v>128.05816928125</v>
@@ -10130,7 +10132,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10191,25 +10193,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10425,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>249.3531357735217</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
@@ -10440,7 +10442,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
-        <v>386.4744065605342</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
@@ -10665,7 +10667,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10674,16 +10676,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>188.5439209688487</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10823,7 +10825,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L38" t="n">
         <v>434.3676631324684</v>
@@ -10902,25 +10904,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>143.2439403504901</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7241198125511</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11060,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11145,7 +11147,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N42" t="n">
         <v>402.3419766228525</v>
@@ -11154,7 +11156,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>146.9415753334873</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
@@ -11382,16 +11384,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>273.8674502982108</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>128.5796547972596</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>135.2156897041255</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22686,13 +22688,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>232.2250950653388</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>150.6105342974166</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22863,22 +22865,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>88.89749437271158</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>22.55631827303307</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22920,13 +22922,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
         <v>167.3365529312023</v>
@@ -22960,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>88.89749437271158</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23205,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>89.01313062185548</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23264,16 +23266,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>63.86009604655089</v>
+        <v>301.74554405693</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -23434,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23516,7 +23518,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>86.944044016036</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W14" t="n">
         <v>76.2463096589521</v>
       </c>
       <c r="X14" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.4032644096333</v>
+        <v>345.9162448106772</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.2934483255617</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>50.59846856447032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23677,7 +23679,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.23872090402212</v>
+        <v>89.01313062185548</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23738,22 +23740,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>86.91055432317197</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23829,7 +23831,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.458801139478624</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>190.6573243660415</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>284.0389580842436</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>170.0771535833928</v>
       </c>
       <c r="G20" t="n">
         <v>414.8547654038309</v>
@@ -23987,10 +23989,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>222.9651171964204</v>
@@ -24035,7 +24037,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>161.9879688231744</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>139.1036326845781</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
@@ -24187,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24218,7 +24220,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -24260,19 +24262,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>145.0978942447525</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>77.76517873849558</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24351,7 +24353,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>44.78039397515647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24418,13 +24420,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
-        <v>254.113767922655</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24443,7 +24445,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -24458,13 +24460,13 @@
         <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>63.86009604655089</v>
+        <v>73.74868211661192</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>101.0799957603185</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -24528,13 +24530,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>11.14092589202068</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
@@ -24579,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>50.24743635262979</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>1.170564849075447</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24646,7 +24648,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
         <v>222.3574069614225</v>
@@ -24658,7 +24660,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
-        <v>247.4143720951131</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24683,13 +24685,13 @@
         <v>92.70128833734015</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E29" t="n">
-        <v>108.834228413685</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F29" t="n">
-        <v>307.5555086749346</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24762,19 +24764,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>86.98291296100932</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
         <v>86.50354346547167</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>161.8637055191095</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24892,13 +24894,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2981651592603</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24935,7 +24937,7 @@
         <v>63.86009604655089</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0.6592771345624158</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -24971,16 +24973,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>9.888586070061081</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>179.2577010870266</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25008,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>117.7908932649241</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.01162215094845</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>100.420718625756</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25236,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
         <v>86.50354346547167</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>58.78990486009021</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>92.96175398895402</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
@@ -25293,13 +25295,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25369,10 +25371,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W37" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>92.70128833734015</v>
@@ -25397,7 +25399,7 @@
         <v>82.3209254129959</v>
       </c>
       <c r="E38" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25439,7 +25441,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
@@ -25454,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>350.9628459682917</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>144.9424161137212</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>89.85890827490047</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25609,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25691,10 +25693,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.4032644096333</v>
+        <v>286.9487169456296</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -25716,16 +25718,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>106.6060454386583</v>
       </c>
       <c r="G42" t="n">
-        <v>11.01519020440944</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
         <v>198.3825319082687</v>
@@ -25764,16 +25766,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25849,7 +25851,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0.6592771345624158</v>
@@ -25928,7 +25930,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>334.4967294928101</v>
       </c>
       <c r="Y44" t="n">
         <v>112.4032644096333</v>
@@ -25944,7 +25946,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>134.1661897354656</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -26001,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>167.6022354165429</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
         <v>286.0522703910642</v>
@@ -26083,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>502213.6591428174</v>
+        <v>502213.6591428173</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428171</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502213.6591428174</v>
+        <v>502213.6591428173</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26331,7 @@
         <v>103906.2743054104</v>
       </c>
       <c r="H2" t="n">
-        <v>103906.2743054103</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="I2" t="n">
         <v>103906.2743054104</v>
@@ -26350,7 +26352,7 @@
         <v>103906.2743054104</v>
       </c>
       <c r="O2" t="n">
-        <v>103906.2743054104</v>
+        <v>103906.2743054103</v>
       </c>
       <c r="P2" t="n">
         <v>103906.2743054104</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38521.91290618618</v>
+        <v>-38521.91290618621</v>
       </c>
       <c r="C6" t="n">
-        <v>53396.89946155368</v>
+        <v>53396.89946155364</v>
       </c>
       <c r="D6" t="n">
         <v>53396.89946155366</v>
       </c>
       <c r="E6" t="n">
-        <v>87024.49946155367</v>
+        <v>87024.49946155364</v>
       </c>
       <c r="F6" t="n">
-        <v>87024.49946155364</v>
+        <v>87024.49946155361</v>
       </c>
       <c r="G6" t="n">
         <v>87024.49946155367</v>
       </c>
       <c r="H6" t="n">
-        <v>87024.49946155361</v>
+        <v>87024.49946155367</v>
       </c>
       <c r="I6" t="n">
-        <v>87024.49946155367</v>
+        <v>87024.49946155364</v>
       </c>
       <c r="J6" t="n">
         <v>15259.78697346739</v>
@@ -26549,16 +26551,16 @@
         <v>87024.49946155364</v>
       </c>
       <c r="L6" t="n">
-        <v>87024.4994615537</v>
+        <v>87024.49946155367</v>
       </c>
       <c r="M6" t="n">
+        <v>87024.49946155361</v>
+      </c>
+      <c r="N6" t="n">
         <v>87024.49946155364</v>
       </c>
-      <c r="N6" t="n">
-        <v>87024.4994615537</v>
-      </c>
       <c r="O6" t="n">
-        <v>87024.49946155364</v>
+        <v>87024.49946155361</v>
       </c>
       <c r="P6" t="n">
         <v>87024.49946155364</v>
@@ -34705,7 +34707,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
         <v>231.1630643817873</v>
@@ -34784,10 +34786,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N3" t="n">
-        <v>134.1933268726387</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -34942,7 +34944,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35021,10 +35023,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.5579630241179461</v>
-      </c>
-      <c r="N6" t="n">
-        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35191,7 +35193,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
@@ -35261,13 +35263,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="P9" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L11" t="n">
         <v>204.4954085367308</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2838073416025</v>
+        <v>199.9590986266935</v>
       </c>
       <c r="N12" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>56.78741806046166</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
         <v>250.5834388302202</v>
@@ -35735,13 +35737,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2838073416025</v>
+        <v>219.9611335109387</v>
       </c>
       <c r="O15" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L17" t="n">
         <v>204.4954085367308</v>
@@ -35963,7 +35965,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
         <v>250.5834388302202</v>
@@ -35972,10 +35974,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>82.55611253552989</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>270.5854737144654</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="P18" t="n">
         <v>200.5762321565626</v>
@@ -36203,13 +36205,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>250.5834388302202</v>
+        <v>199.9590986266935</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>223.6594671380758</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36437,16 +36439,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>134.1933268726387</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36455,7 +36457,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>140.6484434930818</v>
@@ -36680,7 +36682,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>216.1914763840507</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>114.2626154881444</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
@@ -37160,7 +37162,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
-        <v>247.4430682272009</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
@@ -37385,7 +37387,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
@@ -37394,16 +37396,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>60.48575168759873</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L38" t="n">
         <v>204.4954085367308</v>
@@ -37622,25 +37624,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>8.84853735049013</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>271.1434367385833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L41" t="n">
         <v>204.4954085367308</v>
@@ -37865,7 +37867,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N42" t="n">
         <v>274.2838073416025</v>
@@ -37874,7 +37876,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>16.31652810451531</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512659.7371658908</v>
+        <v>414828.5447698466</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.278659209</v>
+        <v>925407.2786592084</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.8489596931843</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
         <v>274.2838073416025</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>17.76425168466123</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="E5" t="n">
-        <v>35.70559250379682</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I5" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>87.90619724909971</v>
+        <v>14.58093026504178</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>82.12808955468941</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.37801704792682</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>18.62406031006298</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H11" t="n">
-        <v>36.39835933122335</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>97.85558416981998</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -1469,7 +1469,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.77082694055858</v>
+        <v>219.4759005688517</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>97.85558416981998</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -1706,7 +1706,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>35.90507490100135</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.37801704792682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>34.84848032108655</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>159.5028127661658</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,20 +2080,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>237.216709897148</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>16.92980102259569</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="22">
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>120.6173531697731</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="25">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H26" t="n">
-        <v>264.3952212715415</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>57.87099241343962</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>94.2287510076988</v>
       </c>
       <c r="U27" t="n">
         <v>224.6571770672012</v>
@@ -2696,13 +2696,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>199.7419103973702</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,76 +2712,76 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>190.9632541887276</v>
       </c>
     </row>
     <row r="30">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>36.51882638915914</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="31">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>58.51163626885506</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>191.6038980441427</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>21.4919213145232</v>
+        <v>16.70463918616818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,17 +3271,17 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.43010407512111</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>122.5443985706642</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>75.99985991669037</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="37">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.72422578294405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>79.71476095348008</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3650,7 +3650,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="40">
@@ -3748,67 +3748,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>41.43010407512111</v>
+      </c>
+      <c r="T41" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U41" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G41" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>141.8508227008771</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>36.90018664489104</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3887,7 +3887,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="43">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F44" t="n">
         <v>274.2838073416025</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>36.36486963835926</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.2838073416025</v>
+        <v>241.5891775064833</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>36.85939419193543</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>23.84334938487082</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C2" t="n">
         <v>21.9427045873282</v>
@@ -4336,16 +4336,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4357,25 +4357,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>663.9735435886729</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>409.9556005820623</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>409.9556005820623</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>409.9556005820623</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>409.9556005820623</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.9012497319588</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.8936553037125</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
         <v>21.9427045873282</v>
@@ -4418,10 +4418,10 @@
         <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>549.5069725377944</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O3" t="n">
         <v>817.386591515115</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W3" t="n">
-        <v>1079.191540796045</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6646422016225</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y3" t="n">
-        <v>666.936206425273</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.13522936641</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.13522936641</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E5" t="n">
-        <v>1061.06897431207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4579,10 +4579,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198.114159854572</v>
+        <v>321.6564056426107</v>
       </c>
       <c r="C6" t="n">
-        <v>198.114159854572</v>
+        <v>321.6564056426107</v>
       </c>
       <c r="D6" t="n">
-        <v>198.114159854572</v>
+        <v>174.0680990015546</v>
       </c>
       <c r="E6" t="n">
-        <v>198.114159854572</v>
+        <v>174.0680990015546</v>
       </c>
       <c r="F6" t="n">
-        <v>198.114159854572</v>
+        <v>174.0680990015546</v>
       </c>
       <c r="G6" t="n">
-        <v>198.114159854572</v>
+        <v>36.67091697625929</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>277.4136198757311</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M6" t="n">
-        <v>548.9545891439176</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N6" t="n">
         <v>549.5069725377944</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8839858920107</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="W6" t="n">
-        <v>610.3694942253441</v>
+        <v>321.6564056426107</v>
       </c>
       <c r="X6" t="n">
-        <v>403.8425956309216</v>
+        <v>321.6564056426107</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.114159854572</v>
+        <v>321.6564056426107</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4752,25 +4752,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.94270458732819</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="C8" t="n">
-        <v>21.94270458732819</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="D8" t="n">
-        <v>21.94270458732819</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="E8" t="n">
-        <v>21.94270458732819</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="F8" t="n">
-        <v>21.94270458732819</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="G8" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
         <v>143.241092649432</v>
@@ -4834,22 +4834,22 @@
         <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>266.6719412882472</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>21.94270458732819</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>21.94270458732819</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>21.94270458732819</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.94270458732819</v>
+        <v>468.8528235421485</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>891.4067935900604</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C9" t="n">
-        <v>808.4491273732024</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4889,46 +4889,46 @@
         <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N9" t="n">
-        <v>688.1965482020685</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y9" t="n">
-        <v>891.4067935900604</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266.6719412882472</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C11" t="n">
-        <v>266.6719412882472</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D11" t="n">
-        <v>266.6719412882472</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E11" t="n">
-        <v>266.6719412882472</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F11" t="n">
-        <v>266.6719412882472</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G11" t="n">
-        <v>266.6719412882472</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5065,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S11" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T11" t="n">
-        <v>520.6898842948577</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U11" t="n">
-        <v>266.6719412882472</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V11" t="n">
-        <v>266.6719412882472</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W11" t="n">
-        <v>266.6719412882472</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X11" t="n">
-        <v>266.6719412882472</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="Y11" t="n">
-        <v>266.6719412882472</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>981.2022424513852</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="C12" t="n">
-        <v>808.4491273732024</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="D12" t="n">
-        <v>660.8608207321463</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="E12" t="n">
-        <v>503.251291735001</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2955017516178</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1846636454791</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M12" t="n">
-        <v>359.1441712859057</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N12" t="n">
-        <v>630.6851405540922</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O12" t="n">
-        <v>898.564759531413</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T12" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U12" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V12" t="n">
-        <v>1097.13522936641</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="W12" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="X12" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="Y12" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5235,16 +5235,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C14" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D14" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E14" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F14" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J14" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5302,28 +5302,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T14" t="n">
-        <v>871.9179392690156</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>617.899996262405</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V14" t="n">
-        <v>340.8456454123015</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W14" t="n">
-        <v>63.79129456219789</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X14" t="n">
-        <v>63.79129456219789</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.0926782448495</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="C15" t="n">
-        <v>757.3395631666667</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="D15" t="n">
-        <v>609.7512565256106</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="E15" t="n">
-        <v>452.1417275284654</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F15" t="n">
-        <v>307.1859375450822</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G15" t="n">
-        <v>169.7887555197869</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H15" t="n">
-        <v>58.21045701258208</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5366,43 +5366,43 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M15" t="n">
+        <v>409.2622680873972</v>
+      </c>
+      <c r="N15" t="n">
         <v>680.8032373555836</v>
       </c>
-      <c r="N15" t="n">
-        <v>898.564759531413</v>
-      </c>
       <c r="O15" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P15" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V15" t="n">
-        <v>1097.13522936641</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="W15" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="X15" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="Y15" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5457,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5518,19 +5518,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
         <v>1093.116282134284</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.9427045873282</v>
+        <v>204.731496401199</v>
       </c>
       <c r="C18" t="n">
-        <v>21.9427045873282</v>
+        <v>204.731496401199</v>
       </c>
       <c r="D18" t="n">
-        <v>21.9427045873282</v>
+        <v>57.14318976014289</v>
       </c>
       <c r="E18" t="n">
         <v>21.9427045873282</v>
@@ -5603,13 +5603,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>688.1965482020685</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N18" t="n">
-        <v>688.1965482020685</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O18" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P18" t="n">
         <v>1097.13522936641</v>
@@ -5618,28 +5618,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S18" t="n">
-        <v>936.0212770773536</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T18" t="n">
-        <v>735.6348812104155</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U18" t="n">
-        <v>508.7084397283941</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V18" t="n">
-        <v>274.4571962539949</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W18" t="n">
-        <v>21.9427045873282</v>
+        <v>578.300946117182</v>
       </c>
       <c r="X18" t="n">
-        <v>21.9427045873282</v>
+        <v>371.7740475227595</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.9427045873282</v>
+        <v>371.7740475227595</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
         <v>21.9427045873282</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>745.907174392252</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C20" t="n">
-        <v>468.8528235421485</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D20" t="n">
-        <v>468.8528235421485</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E20" t="n">
-        <v>468.8528235421485</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F20" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G20" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H20" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I20" t="n">
         <v>21.9427045873282</v>
@@ -5779,25 +5779,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T20" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U20" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V20" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W20" t="n">
-        <v>745.907174392252</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X20" t="n">
-        <v>745.907174392252</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y20" t="n">
-        <v>745.907174392252</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520.352100848734</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>520.352100848734</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>520.352100848734</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>630.6851405540922</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5855,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S21" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T21" t="n">
-        <v>726.0805366250836</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U21" t="n">
-        <v>726.0805366250836</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V21" t="n">
-        <v>726.0805366250836</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W21" t="n">
-        <v>726.0805366250836</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X21" t="n">
-        <v>726.0805366250836</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y21" t="n">
-        <v>520.352100848734</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5949,7 +5949,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X22" t="n">
         <v>21.9427045873282</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.9970554374318</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C23" t="n">
-        <v>298.9970554374318</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D23" t="n">
-        <v>298.9970554374318</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E23" t="n">
         <v>298.9970554374318</v>
       </c>
       <c r="F23" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G23" t="n">
         <v>21.9427045873282</v>
@@ -5986,25 +5986,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732809</v>
       </c>
       <c r="J23" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732809</v>
       </c>
       <c r="K23" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6025,16 +6025,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
@@ -6071,13 +6071,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K24" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N24" t="n">
         <v>630.6851405540922</v>
@@ -6095,25 +6095,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S24" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T24" t="n">
-        <v>708.9797275113506</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U24" t="n">
-        <v>708.9797275113506</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V24" t="n">
-        <v>708.9797275113506</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W24" t="n">
-        <v>708.9797275113506</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X24" t="n">
-        <v>708.9797275113506</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y24" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6174,16 +6174,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W25" t="n">
         <v>21.9427045873282</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C26" t="n">
-        <v>566.0629355096959</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D26" t="n">
-        <v>566.0629355096959</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E26" t="n">
-        <v>566.0629355096959</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F26" t="n">
-        <v>566.0629355096959</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G26" t="n">
-        <v>289.0085846595923</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6253,25 +6253,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>830.735285793704</v>
       </c>
       <c r="U26" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="V26" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="W26" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X26" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y26" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M27" t="n">
-        <v>630.6851405540922</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N27" t="n">
         <v>630.6851405540922</v>
@@ -6329,25 +6329,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>735.6348812104155</v>
       </c>
       <c r="U27" t="n">
-        <v>870.2087878843885</v>
+        <v>508.7084397283941</v>
       </c>
       <c r="V27" t="n">
-        <v>635.9575444099894</v>
+        <v>274.4571962539949</v>
       </c>
       <c r="W27" t="n">
-        <v>434.1980389581003</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X27" t="n">
-        <v>227.6711403636777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y27" t="n">
         <v>21.9427045873282</v>
@@ -6429,7 +6429,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C29" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D29" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G29" t="n">
         <v>21.9427045873282</v>
@@ -6487,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U29" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V29" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="W29" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="X29" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="Y29" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>314.4868012117674</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>314.4868012117674</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
         <v>21.9427045873282</v>
@@ -6551,16 +6551,16 @@
         <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N30" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O30" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P30" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
@@ -6569,25 +6569,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T30" t="n">
-        <v>793.9277343604556</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U30" t="n">
-        <v>567.0012928784341</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V30" t="n">
-        <v>567.0012928784341</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W30" t="n">
-        <v>314.4868012117674</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X30" t="n">
-        <v>314.4868012117674</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y30" t="n">
-        <v>314.4868012117674</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.2943361123045</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="C32" t="n">
-        <v>506.2943361123045</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="D32" t="n">
-        <v>506.2943361123045</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="E32" t="n">
-        <v>506.2943361123045</v>
+        <v>784.014623461966</v>
       </c>
       <c r="F32" t="n">
-        <v>506.2943361123045</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G32" t="n">
-        <v>506.2943361123045</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H32" t="n">
-        <v>229.2399852622009</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
@@ -6709,13 +6709,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6724,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>699.833627065984</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V32" t="n">
-        <v>699.833627065984</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W32" t="n">
-        <v>699.833627065984</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="X32" t="n">
-        <v>506.2943361123045</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.2943361123045</v>
+        <v>843.1172863597994</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="C33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="D33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="E33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="F33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="G33" t="n">
-        <v>155.2300145233444</v>
+        <v>150.3943760098544</v>
       </c>
       <c r="H33" t="n">
-        <v>43.65171601613952</v>
+        <v>38.81607750264959</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>274.3046529787421</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M33" t="n">
-        <v>545.8456222469285</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N33" t="n">
-        <v>817.386591515115</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S33" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T33" t="n">
-        <v>726.0805366250836</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U33" t="n">
-        <v>499.1540951430621</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V33" t="n">
-        <v>499.1540951430621</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W33" t="n">
-        <v>499.1540951430621</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="Y33" t="n">
-        <v>292.6271965486396</v>
+        <v>287.7915580351497</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>298.9970554374318</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G35" t="n">
         <v>21.9427045873282</v>
@@ -6961,10 +6961,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1055.28663939154</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>1055.28663939154</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="T35" t="n">
         <v>830.0693492941459</v>
@@ -6973,10 +6973,10 @@
         <v>576.0514062875353</v>
       </c>
       <c r="V35" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W35" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X35" t="n">
         <v>298.9970554374318</v>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
         <v>21.9427045873282</v>
@@ -7019,22 +7019,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O36" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7043,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1020.367694097026</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>819.9812982300876</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>819.9812982300876</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V36" t="n">
-        <v>819.9812982300876</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W36" t="n">
-        <v>567.466806563421</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X36" t="n">
-        <v>567.466806563421</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.7383707870715</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S37" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T37" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W37" t="n">
         <v>21.9427045873282</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C38" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D38" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H38" t="n">
         <v>21.9427045873282</v>
@@ -7177,19 +7177,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P38" t="n">
         <v>1093.116282134284</v>
@@ -7201,25 +7201,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T38" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W38" t="n">
-        <v>889.1908336860672</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X38" t="n">
-        <v>612.1364828359636</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y38" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L39" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M39" t="n">
-        <v>557.7146411209028</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N39" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O39" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P39" t="n">
         <v>1097.13522936641</v>
@@ -7277,25 +7277,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>920.9637740991661</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V39" t="n">
-        <v>686.7125306247669</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W39" t="n">
-        <v>434.1980389581003</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X39" t="n">
-        <v>227.6711403636777</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y39" t="n">
         <v>21.9427045873282</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C41" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D41" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E41" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F41" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G41" t="n">
         <v>21.9427045873282</v>
@@ -7435,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S41" t="n">
-        <v>953.8515700725947</v>
+        <v>1055.28663939154</v>
       </c>
       <c r="T41" t="n">
-        <v>953.8515700725947</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U41" t="n">
-        <v>953.8515700725947</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V41" t="n">
-        <v>953.8515700725947</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W41" t="n">
-        <v>953.8515700725947</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X41" t="n">
-        <v>676.7972192224911</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y41" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
         <v>21.9427045873282</v>
@@ -7490,52 +7490,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O42" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>1001.483734658237</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V42" t="n">
-        <v>767.2324911838377</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W42" t="n">
-        <v>514.7179995171711</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X42" t="n">
-        <v>308.1911009227485</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y42" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7596,19 +7596,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X43" t="n">
         <v>21.9427045873282</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>783.348686962408</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C44" t="n">
-        <v>783.348686962408</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D44" t="n">
-        <v>783.348686962408</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="E44" t="n">
-        <v>783.348686962408</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F44" t="n">
-        <v>506.2943361123045</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G44" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H44" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I44" t="n">
         <v>21.9427045873282</v>
@@ -7651,19 +7651,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P44" t="n">
         <v>1093.116282134284</v>
@@ -7690,10 +7690,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>1060.403037812512</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>783.348686962408</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>59.17441589231348</v>
+        <v>499.8936553037125</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9427045873282</v>
+        <v>327.1405402255297</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E45" t="n">
         <v>21.9427045873282</v>
@@ -7736,7 +7736,7 @@
         <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>630.6851405540922</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N45" t="n">
         <v>630.6851405540922</v>
@@ -7754,25 +7754,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>726.0805366250836</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U45" t="n">
-        <v>499.1540951430621</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V45" t="n">
-        <v>264.902851668663</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="W45" t="n">
-        <v>264.902851668663</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="X45" t="n">
-        <v>264.902851668663</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="Y45" t="n">
-        <v>59.17441589231348</v>
+        <v>666.936206425273</v>
       </c>
     </row>
     <row r="46">
@@ -7842,7 +7842,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7984,7 +7984,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M2" t="n">
         <v>467.4940748325458</v>
@@ -8066,13 +8066,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>272.7740099466066</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>269.5263315788349</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
@@ -8294,19 +8294,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>128.6161323053679</v>
+        <v>246.0191183965316</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8537,22 +8537,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>249.0736414352243</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>351.5244810902469</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8692,7 +8692,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
@@ -8710,7 +8710,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8768,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>338.5397817006614</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>187.4124652894337</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8929,7 +8929,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9014,19 +9014,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0193027921887</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>276.99432233286</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9166,7 +9166,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9184,7 +9184,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9251,16 +9251,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>412.8644904155703</v>
+        <v>281.0645842729788</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
-        <v>351.5244810902469</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
         <v>136.482229733871</v>
@@ -9479,25 +9479,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>335.0496189120709</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>281.0645842729788</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9719,16 +9719,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N24" t="n">
-        <v>210.6142818167799</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9962,10 +9962,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>362.2401502120437</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10199,7 +10199,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>272.7740099466066</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N30" t="n">
         <v>128.05816928125</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>249.3531357735217</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10667,16 +10667,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N36" t="n">
-        <v>210.6142818167799</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10825,7 +10825,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L38" t="n">
         <v>434.3676631324684</v>
@@ -10901,25 +10901,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>136.482229733871</v>
@@ -11138,19 +11138,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>228.6047863635229</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11384,10 +11384,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>354.7721594580186</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>273.8674502982108</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>125.3959181724593</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -22597,13 +22597,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22612,7 +22612,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
         <v>112.4032644096333</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>106.6433903054798</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -22682,19 +22682,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>232.2250950653388</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>256.8663779489922</v>
       </c>
       <c r="E5" t="n">
-        <v>347.4124432514906</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22852,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22868,7 +22868,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
@@ -22877,13 +22877,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>22.55631827303307</v>
+        <v>95.88158525709099</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -23032,10 +23032,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>246.6975549801614</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -23089,7 +23089,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>88.89749437271158</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>51.73378021726776</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -23156,19 +23156,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>89.01313062185548</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>365.0923496813321</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23269,19 +23269,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H11" t="n">
-        <v>301.74554405693</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>48.25683940482558</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
@@ -23396,10 +23396,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -23436,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23506,7 +23506,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G14" t="n">
         <v>414.8547654038309</v>
@@ -23518,7 +23518,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.9162448106772</v>
+        <v>167.2111711823841</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>48.25683940482558</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.59846856447032</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23633,10 +23633,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23679,7 +23679,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>89.01313062185548</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23715,7 +23715,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23740,16 +23740,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
@@ -23794,7 +23794,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>131.0542164317029</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>121.1849533860873</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>9.458801139478624</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -23940,7 +23940,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
@@ -23952,7 +23952,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -23980,7 +23980,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>170.0771535833928</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G20" t="n">
         <v>414.8547654038309</v>
@@ -23989,7 +23989,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
         <v>0.6592771345624158</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
         <v>222.9651171964204</v>
@@ -24031,10 +24031,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>250.7917621949484</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24056,19 +24056,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>139.1036326845781</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="22">
@@ -24189,10 +24189,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G23" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -24265,16 +24265,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>77.76517873849558</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="25">
@@ -24414,7 +24414,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24426,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24445,7 +24445,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -24454,19 +24454,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G26" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>73.74868211661192</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>165.0941247829807</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>50.24743635262979</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24669,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24748,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>195.7238175625082</v>
       </c>
     </row>
     <row r="30">
@@ -24764,13 +24764,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>136.0232102050423</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>161.8637055191095</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T31" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U31" t="n">
         <v>286.0522703910642</v>
@@ -24900,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24925,22 +24925,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>324.6063994864324</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -24982,7 +24982,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>179.2577010870266</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.01162215094845</v>
+        <v>69.79890427930349</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25134,10 +25134,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25159,7 +25159,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25168,7 +25168,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>100.420718625756</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>83.32055315287499</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25283,25 +25283,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>92.96175398895402</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>222.3574069614225</v>
@@ -25371,10 +25371,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V37" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>280.5705979155895</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25408,7 +25408,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
@@ -25441,7 +25441,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
@@ -25453,13 +25453,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X38" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.9628459682917</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25526,7 +25526,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>144.9424161137212</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="40">
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>107.1794502458071</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25636,13 +25636,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F41" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>164.4348476484181</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>286.9487169456296</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>106.6060454386583</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
         <v>86.50354346547167</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
@@ -25763,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
@@ -25851,7 +25851,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25873,7 +25873,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F44" t="n">
         <v>133.0100561389384</v>
@@ -25885,7 +25885,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
         <v>0.6592771345624158</v>
@@ -25930,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>334.4967294928101</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.4032644096333</v>
+        <v>145.0978942447525</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>134.1661897354656</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -25994,16 +25994,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>208.0653816547843</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -26082,10 +26082,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W46" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428172</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502213.6591428174</v>
+        <v>502213.6591428173</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>502213.6591428171</v>
+        <v>502213.6591428174</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502213.6591428173</v>
+        <v>502213.6591428172</v>
       </c>
     </row>
   </sheetData>
@@ -26352,7 +26352,7 @@
         <v>103906.2743054104</v>
       </c>
       <c r="O2" t="n">
-        <v>103906.2743054103</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="P2" t="n">
         <v>103906.2743054104</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="E4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="F4" t="n">
         <v>205.3193574873218</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38521.91290618621</v>
+        <v>-50211.04192944209</v>
       </c>
       <c r="C6" t="n">
-        <v>53396.89946155364</v>
+        <v>41707.77043829778</v>
       </c>
       <c r="D6" t="n">
-        <v>53396.89946155366</v>
+        <v>41707.77043829779</v>
       </c>
       <c r="E6" t="n">
-        <v>87024.49946155364</v>
+        <v>75335.3704382978</v>
       </c>
       <c r="F6" t="n">
-        <v>87024.49946155361</v>
+        <v>75335.3704382978</v>
       </c>
       <c r="G6" t="n">
-        <v>87024.49946155367</v>
+        <v>75335.37043829779</v>
       </c>
       <c r="H6" t="n">
-        <v>87024.49946155367</v>
+        <v>75335.37043829776</v>
       </c>
       <c r="I6" t="n">
-        <v>87024.49946155364</v>
+        <v>75335.37043829773</v>
       </c>
       <c r="J6" t="n">
-        <v>15259.78697346739</v>
+        <v>3570.657950211509</v>
       </c>
       <c r="K6" t="n">
-        <v>87024.49946155364</v>
+        <v>75335.37043829776</v>
       </c>
       <c r="L6" t="n">
-        <v>87024.49946155367</v>
+        <v>75335.37043829777</v>
       </c>
       <c r="M6" t="n">
-        <v>87024.49946155361</v>
+        <v>75335.37043829776</v>
       </c>
       <c r="N6" t="n">
-        <v>87024.49946155364</v>
+        <v>75335.37043829773</v>
       </c>
       <c r="O6" t="n">
-        <v>87024.49946155361</v>
+        <v>75335.37043829779</v>
       </c>
       <c r="P6" t="n">
-        <v>87024.49946155364</v>
+        <v>75335.37043829773</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M2" t="n">
         <v>242.9064974359549</v>
@@ -34786,13 +34786,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5579630241179461</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35257,22 +35257,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>110.4929583612564</v>
+      </c>
+      <c r="N9" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>212.4931427569136</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
         <v>204.4954085367308</v>
@@ -35430,7 +35430,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>199.9590986266935</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>200.5762321565626</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
@@ -35734,19 +35734,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N15" t="n">
-        <v>219.9611335109387</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>137.9629839995266</v>
       </c>
       <c r="P15" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
         <v>204.4954085367308</v>
@@ -35904,7 +35904,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
+        <v>142.4839011990109</v>
+      </c>
+      <c r="N18" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>212.4931427569136</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>199.9590986266935</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
+        <v>142.4839011990109</v>
+      </c>
+      <c r="N21" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N24" t="n">
-        <v>82.55611253552989</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>140.6484434930818</v>
@@ -36682,10 +36682,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>223.6594671380758</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36919,7 +36919,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>134.1933268726387</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>114.2626154881444</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N36" t="n">
-        <v>82.55611253552989</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
@@ -37405,7 +37405,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L38" t="n">
         <v>204.4954085367308</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>90.02410328955504</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
@@ -37879,7 +37879,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>216.1914763840507</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
